--- a/NSAID/Naproxen_Drug_Resource_Mappings.xlsx
+++ b/NSAID/Naproxen_Drug_Resource_Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\CYP2C9_NSAIDS\Implementation tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgong/Documents/Li thinkpad/CPIC/celecoxib/final/Implementation tables/Implementation tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95BCBE-5A00-4FEA-86E6-551D93754D82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F28C6E0-F7B6-3640-A3AC-DAC29D8256CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naproxen" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Drug or Ingredient</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>DB00788</t>
-  </si>
-  <si>
-    <t>C0027396</t>
   </si>
 </sst>
 </file>
@@ -619,19 +616,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="13.1640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -655,11 +652,11 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
+      <c r="D2" s="12">
+        <v>7258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -673,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -687,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -701,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
     </row>
   </sheetData>
